--- a/LOC_Manual.xlsx
+++ b/LOC_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC7D124-38BB-4D70-A52F-A603B8F7B789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD694CD6-181E-4221-9EC0-D87C47D0D77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +666,9 @@
       <c r="I3" t="s">
         <v>51</v>
       </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
@@ -695,6 +701,9 @@
       <c r="I4" t="s">
         <v>51</v>
       </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" t="s">
         <v>19</v>
       </c>
@@ -727,6 +736,9 @@
       <c r="I5" t="s">
         <v>51</v>
       </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
       <c r="K5" t="s">
         <v>19</v>
       </c>
@@ -759,6 +771,9 @@
       <c r="I6" t="s">
         <v>51</v>
       </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
       <c r="K6" t="s">
         <v>19</v>
       </c>
@@ -791,6 +806,9 @@
       <c r="I7" t="s">
         <v>51</v>
       </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
       <c r="K7" t="s">
         <v>19</v>
       </c>
@@ -823,6 +841,9 @@
       <c r="I8" t="s">
         <v>51</v>
       </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
       <c r="K8" t="s">
         <v>19</v>
       </c>
@@ -854,6 +875,9 @@
       </c>
       <c r="I9" t="s">
         <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>

--- a/LOC_Manual.xlsx
+++ b/LOC_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD694CD6-181E-4221-9EC0-D87C47D0D77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130FC567-8B5D-4594-95C5-1F2337599E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +632,10 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -664,10 +667,7 @@
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>

--- a/LOC_Manual.xlsx
+++ b/LOC_Manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130FC567-8B5D-4594-95C5-1F2337599E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2B58EC-713A-4564-B25C-F36D4B643620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -173,12 +173,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -553,7 +547,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,10 +626,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -699,10 +690,7 @@
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -734,10 +722,7 @@
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
@@ -769,10 +754,7 @@
         <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -804,10 +786,7 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
@@ -839,10 +818,7 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -874,10 +850,7 @@
         <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>

--- a/LOC_Manual.xlsx
+++ b/LOC_Manual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15842DA-1153-4F89-BD53-AC2E561DD37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29189981-6409-4C69-A02F-EFDEA0F9B7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -221,12 +221,6 @@
   </si>
   <si>
     <t>User needs to login to Salesforce from the browser with correct credentials</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -601,7 +595,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,10 +674,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -715,10 +706,7 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -750,10 +738,7 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -785,10 +770,7 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -820,10 +802,7 @@
         <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
@@ -855,10 +834,7 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -890,10 +866,7 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -925,10 +898,7 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>

--- a/LOC_Manual.xlsx
+++ b/LOC_Manual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29189981-6409-4C69-A02F-EFDEA0F9B7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888DB86-E98E-4A77-B9F0-3E65560F611F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>User needs to login to Salesforce from the browser with correct credentials</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Nil</t>
   </si>
 </sst>
 </file>
@@ -594,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,7 +712,10 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
@@ -738,7 +747,10 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -770,7 +782,10 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
@@ -802,7 +817,10 @@
         <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
@@ -834,7 +852,10 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -866,7 +887,10 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -898,7 +922,10 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
       </c>
       <c r="K9" t="s">
         <v>20</v>
@@ -930,7 +957,10 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -962,7 +992,10 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
       </c>
       <c r="K11" t="s">
         <v>20</v>
@@ -994,7 +1027,10 @@
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
       </c>
       <c r="K12" t="s">
         <v>20</v>
@@ -1026,7 +1062,10 @@
         <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>68</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>

--- a/LOC_Manual.xlsx
+++ b/LOC_Manual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\Parameterization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888DB86-E98E-4A77-B9F0-3E65560F611F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D871186-1579-4A17-BA28-5993444306AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -601,7 +601,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,10 +817,7 @@
         <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
@@ -852,10 +849,7 @@
         <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
@@ -887,10 +881,7 @@
         <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
